--- a/数据整理/stocks/港股/00763-中兴通讯.xlsx
+++ b/数据整理/stocks/港股/00763-中兴通讯.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1767,4 +1768,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00763-中兴通讯.xlsx
+++ b/数据整理/stocks/港股/00763-中兴通讯.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1776,7 +1777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1787,17 +1788,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1807,14 +1828,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.48</v>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1823,13 +1866,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.29</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00763-中兴通讯.xlsx
+++ b/数据整理/stocks/港股/00763-中兴通讯.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1985,7 +1986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1996,17 +1997,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2016,14 +2037,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -2032,14 +2075,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.48</v>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2048,13 +2113,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.29</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00763-中兴通讯.xlsx
+++ b/数据整理/stocks/港股/00763-中兴通讯.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6.48</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.29</v>
       </c>
     </row>
@@ -549,6 +566,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -794,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1002,7 +1341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1778,7 +2117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00763-中兴通讯.xlsx
+++ b/数据整理/stocks/港股/00763-中兴通讯.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2.29</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>6.48</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.29</v>
       </c>
     </row>
@@ -566,6 +583,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015780</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015026</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华增华混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014697</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014698</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华增华混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015781</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -887,7 +1720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +1966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1341,7 +2174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +2950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
